--- a/Document/기획서/itemtable.xlsx
+++ b/Document/기획서/itemtable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooli\Desktop\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KingGodGame\Document\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{5BD3F41A-3417-4543-A4AB-6183E4BB0C1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>아이템테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,53 +524,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA273E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -602,54 +568,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA273E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -975,24 +893,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D99399-7847-4593-B16E-8B37E561BFFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G27:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1020,11 +938,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -1049,11 +967,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1064,11 +982,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1079,11 +997,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -1094,11 +1012,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -1109,14 +1027,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>84</v>
       </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
@@ -1124,14 +1045,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
@@ -1139,11 +1063,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -1154,22 +1078,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1189,7 +1113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1209,7 +1133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1229,7 +1153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1249,7 +1173,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1272,7 +1196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1292,7 +1216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1312,14 +1236,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="s">
@@ -1332,7 +1256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1349,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1366,7 +1290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1386,7 +1310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1403,7 +1327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1417,7 +1341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1434,7 +1358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1451,7 +1375,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1468,7 +1392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1485,7 +1409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1502,7 +1426,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1519,7 +1443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1533,7 +1457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1547,7 +1471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1564,7 +1488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1581,7 +1505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1598,13 +1522,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>92</v>
       </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
       <c r="E36" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1539,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1626,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1640,7 +1567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1654,7 +1581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1671,336 +1598,336 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G102" xr:uid="{B010A0BB-34D1-479A-95B1-07019594B92E}"/>
+  <autoFilter ref="A2:G102"/>
   <mergeCells count="1">
     <mergeCell ref="B3:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="일반">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="일반">
       <formula>NOT(ISERROR(SEARCH("일반",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="희귀">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="희귀">
       <formula>NOT(ISERROR(SEARCH("희귀",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="마스터">
       <formula>NOT(ISERROR(SEARCH("마스터",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="전설">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="전설">
       <formula>NOT(ISERROR(SEARCH("전설",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="마스터">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="마스터">
       <formula>NOT(ISERROR(SEARCH("마스터",E1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/기획서/itemtable.xlsx
+++ b/Document/기획서/itemtable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KingGodGame\Document\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CounterFlow\KingGodGame\Document\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A85F0-4DE8-4F0B-83FC-BB52FDA78D7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>아이템테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,13 +471,25 @@
   </si>
   <si>
     <t>타락+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주변을 돌아다니는 템이 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,24 +906,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -938,7 +951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -967,7 +980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -982,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1027,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1045,7 +1058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1078,7 +1091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1093,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1113,7 +1126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1133,7 +1146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1153,7 +1166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1173,7 +1186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1256,7 +1269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1273,7 +1286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1310,7 +1323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1327,7 +1340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1358,7 +1371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1375,7 +1388,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1409,7 +1422,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1426,7 +1439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1457,7 +1470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1471,7 +1484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1539,7 +1552,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1553,7 +1566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1567,7 +1580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1581,7 +1594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1598,318 +1611,327 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G102"/>
+  <autoFilter ref="A2:G102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B3:B11"/>
   </mergeCells>
